--- a/vendor-input-fortify-cpp.xlsx
+++ b/vendor-input-fortify-cpp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>CWE</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Input Validation and Representation:Buffer Overflow:Signed Comparison</t>
   </si>
   <si>
-    <t>API Abuse:Dangerous Function</t>
-  </si>
-  <si>
     <t>Code Quality:Memory Leak</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>API Abuse:Missing Check against Null</t>
   </si>
   <si>
-    <t>API Abuse:Often Misused:File System</t>
-  </si>
-  <si>
     <t>Format String: Argument Number Mismatch</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
   </si>
   <si>
     <t>Weak XML Schema: Unbounded Occurrences</t>
-  </si>
-  <si>
-    <t>Undefined Behavior</t>
   </si>
   <si>
     <t>Code Correctness: Function Returns Stack Address</t>
@@ -383,9 +374,6 @@
     <t>ClassInfo/Subtype</t>
   </si>
   <si>
-    <t>Time and State:Insecure Temporary File</t>
-  </si>
-  <si>
     <t>Line_Number</t>
   </si>
   <si>
@@ -431,10 +419,10 @@
     <t>Language:</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Contact (email):</t>
+  </si>
+  <si>
+    <t>CPP</t>
   </si>
 </sst>
 </file>
@@ -896,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -917,24 +905,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -944,7 +932,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -954,9 +942,11 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <v>36</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -964,10 +954,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -976,71 +966,73 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
-        <v>114</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>121</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>122</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>3</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>123</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1050,13 +1042,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>126</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
+        <v>134</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1064,9 +1056,11 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
-        <v>127</v>
-      </c>
-      <c r="B13" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1074,13 +1068,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
-        <v>134</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>190</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1088,11 +1082,9 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
-        <v>176</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1100,33 +1092,43 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>190</v>
-      </c>
-      <c r="B17" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -1136,55 +1138,47 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
-        <v>194</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
-        <v>195</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
-        <v>196</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+        <v>401</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
-        <v>197</v>
-      </c>
-      <c r="B22" s="5"/>
+        <v>404</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1192,9 +1186,11 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
-        <v>222</v>
-      </c>
-      <c r="B23" s="5"/>
+        <v>415</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1202,9 +1198,11 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
-        <v>223</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>416</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1212,9 +1210,11 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
-        <v>226</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>426</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1222,11 +1222,9 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>242</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1234,9 +1232,11 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>244</v>
-      </c>
-      <c r="B27" s="7"/>
+        <v>457</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1244,9 +1244,9 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
-        <v>247</v>
-      </c>
-      <c r="B28" s="7"/>
+        <v>464</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1254,9 +1254,11 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
-        <v>252</v>
-      </c>
-      <c r="B29" s="7"/>
+        <v>468</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1264,19 +1266,25 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
-        <v>253</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
+        <v>476</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
-        <v>256</v>
-      </c>
-      <c r="B31" s="7"/>
+        <v>562</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1284,9 +1292,9 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
-        <v>259</v>
-      </c>
-      <c r="B32" s="7"/>
+        <v>588</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1294,9 +1302,11 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
-        <v>272</v>
-      </c>
-      <c r="B33" s="7"/>
+        <v>590</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1304,9 +1314,11 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
-        <v>273</v>
-      </c>
-      <c r="B34" s="7"/>
+        <v>665</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1314,9 +1326,9 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
-        <v>284</v>
-      </c>
-      <c r="B35" s="7"/>
+        <v>672</v>
+      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1324,9 +1336,9 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
-        <v>319</v>
-      </c>
-      <c r="B36" s="7"/>
+        <v>675</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1334,9 +1346,11 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
-        <v>321</v>
-      </c>
-      <c r="B37" s="7"/>
+        <v>680</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1344,9 +1358,11 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
-        <v>325</v>
-      </c>
-      <c r="B38" s="7"/>
+        <v>690</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -1354,9 +1370,9 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
-        <v>327</v>
-      </c>
-      <c r="B39" s="7"/>
+        <v>758</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1364,9 +1380,11 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
-        <v>328</v>
-      </c>
-      <c r="B40" s="7"/>
+        <v>761</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1374,7 +1392,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
-        <v>338</v>
+        <v>762</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -1384,9 +1402,11 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
-        <v>364</v>
-      </c>
-      <c r="B42" s="7"/>
+        <v>773</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -1394,9 +1414,11 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
-        <v>366</v>
-      </c>
-      <c r="B43" s="7"/>
+        <v>775</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -1404,9 +1426,9 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
-        <v>367</v>
-      </c>
-      <c r="B44" s="7"/>
+        <v>789</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -1414,799 +1436,15 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
-        <v>369</v>
-      </c>
-      <c r="B45" s="5"/>
+        <v>843</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="4">
-        <v>377</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="4">
-        <v>390</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="4">
-        <v>391</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="4">
-        <v>396</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="4">
-        <v>397</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="4">
-        <v>398</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="4">
-        <v>400</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="4">
-        <v>401</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="4">
-        <v>404</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="4">
-        <v>415</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="4">
-        <v>416</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="4">
-        <v>426</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="4">
-        <v>427</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="4">
-        <v>440</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="4">
-        <v>457</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="4">
-        <v>459</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="4">
-        <v>464</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="4">
-        <v>467</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="4">
-        <v>468</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="4">
-        <v>469</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="4">
-        <v>475</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="4">
-        <v>476</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="4">
-        <v>478</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="4">
-        <v>479</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="4">
-        <v>480</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="4">
-        <v>481</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="4">
-        <v>482</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="4">
-        <v>483</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="4">
-        <v>484</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="4">
-        <v>500</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="4">
-        <v>506</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="4">
-        <v>510</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="4">
-        <v>511</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="4">
-        <v>526</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="4">
-        <v>534</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="4">
-        <v>535</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="4">
-        <v>546</v>
-      </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="4">
-        <v>561</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="4">
-        <v>562</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="4">
-        <v>563</v>
-      </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="4">
-        <v>570</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="4">
-        <v>571</v>
-      </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="4">
-        <v>587</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="4">
-        <v>588</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="4">
-        <v>590</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="4">
-        <v>591</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="4">
-        <v>605</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="4">
-        <v>606</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="4">
-        <v>615</v>
-      </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="4">
-        <v>617</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="4">
-        <v>620</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="4">
-        <v>665</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" s="4">
-        <v>666</v>
-      </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" s="4">
-        <v>667</v>
-      </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="4">
-        <v>672</v>
-      </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="4">
-        <v>674</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="4">
-        <v>675</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="4">
-        <v>676</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A104" s="4">
-        <v>680</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" s="4">
-        <v>681</v>
-      </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" s="4">
-        <v>685</v>
-      </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A107" s="4">
-        <v>688</v>
-      </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" s="4">
-        <v>690</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" s="4">
-        <v>758</v>
-      </c>
-      <c r="B109" s="5"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A110" s="4">
-        <v>761</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A111" s="4">
-        <v>762</v>
-      </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A112" s="4">
-        <v>773</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A113" s="4">
-        <v>775</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A114" s="4">
-        <v>780</v>
-      </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" s="4">
-        <v>785</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A116" s="4">
-        <v>789</v>
-      </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A117" s="4">
-        <v>832</v>
-      </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A118" s="4">
-        <v>835</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A119" s="4">
-        <v>843</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,90 +1469,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2343,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -2351,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -2359,12 +1597,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2378,7 +1616,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B51"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2390,65 +1628,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="82.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="234.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="7"/>
     </row>
